--- a/Networks/Parte2/Excel/Parte2-Network4.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network4.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1418352459587833</v>
+        <v>0.01532826326376212</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6856704668449213</v>
+        <v>-0.3578207221560517</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.06236588999812332</v>
+        <v>-0.6196767501210488</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9451000342862588</v>
+        <v>-0.7493574645013042</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1522406420674792</v>
+        <v>-0.7589033215210698</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4081321529713457</v>
+        <v>-0.2996017689642435</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8626506859390721</v>
+        <v>-0.5386628011823984</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1166350686079686</v>
+        <v>-0.2057924530462218</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05336782077278494</v>
+        <v>-1.042891470265323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4112019010070569</v>
+        <v>-0.005874055797255057</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.054497543112021</v>
+        <v>-0.7403141285562166</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.392823981047272</v>
+        <v>0.6719119038087041</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network4.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network4.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01532826326376212</v>
+        <v>-0.01257756787104805</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3578207221560517</v>
+        <v>-0.9298945772194686</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6196767501210488</v>
+        <v>-0.3357097896181181</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.7493574645013042</v>
+        <v>0.1237095343932099</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7589033215210698</v>
+        <v>-1.142490738400083</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2996017689642435</v>
+        <v>-0.2269153530895137</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5386628011823984</v>
+        <v>-0.7106686183857307</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2057924530462218</v>
+        <v>-0.4309124921599725</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.042891470265323</v>
+        <v>-1.267004070887547</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.005874055797255057</v>
+        <v>0.6290271227358801</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7403141285562166</v>
+        <v>0.1126932270918542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6719119038087041</v>
+        <v>0.7808488167175137</v>
       </c>
     </row>
   </sheetData>
